--- a/pred_ohlcv/54_21/2020-01-19 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WOM ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>208098.2485407723</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-171963.8368592277</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-879638.8738651531</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-886965.5854651531</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-906039.3571651531</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-789908.3931568123</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-850523.3535568123</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-876148.2728705297</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-897466.5237705297</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-905758.7674705297</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-947061.8298550146</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-945512.3300550146</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-929177.5059550146</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-933024.9681550146</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-873660.9585550146</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-872969.1227550146</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-872946.3111550146</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-882648.9874550146</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1008029.55300667</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1126601.799152666</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1127819.014152665</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1123659.608152665</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WOM ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>108359.5993407723</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-171963.8368592277</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-879638.8738651531</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-886965.5854651531</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-883756.3273651531</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-789908.3931568123</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-850523.3535568123</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-876148.2728705297</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-897466.5237705297</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-905758.7674705297</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-947061.8298550146</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-945512.3300550146</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-929177.5059550146</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-933024.9681550146</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-873660.9585550146</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-872969.1227550146</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-872946.3111550146</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-882648.9874550146</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1008029.55300667</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1126601.799152666</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1127819.014152665</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1123659.608152665</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
